--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -42,25 +42,49 @@
     <t>Icon Category</t>
   </si>
   <si>
+    <t>Sữa Dưỡng Thể iS Clinical Body Complexa</t>
+  </si>
+  <si>
     <t>Kem nền chống nắng Neova DNA Damage Control Active Silc Sheer 2.0 SPF40</t>
   </si>
   <si>
+    <t>iS_Clinical_Body_Complex_180ml.png</t>
+  </si>
+  <si>
+    <t>Kem phục hồi sau trị liệu Dermaceutic K Ceutic</t>
+  </si>
+  <si>
+    <t>kem-phuc-hoi-sau-tri-lieu-dermaceutic-k-ceutic.png</t>
+  </si>
+  <si>
     <t>kem-chong-nang-neova-dna-damage-control-active-silc-sheer-2-0-spf40-74ml.png</t>
   </si>
   <si>
     <t>Mỹ</t>
   </si>
   <si>
-    <t>Kem phục hồi sau trị liệu Dermaceutic K Ceutic</t>
+    <t>Sữa Dưỡng Thể iS Clinical Body Complexa với công thức thảo được độc đáo giúp dưỡng ẩm làm mềm da, giúp da căng đầy, săn chắc, sáng màu tự nhiên.</t>
+  </si>
+  <si>
+    <t>body-icon.ico</t>
   </si>
   <si>
     <t>Kem nền chống nắng Neova DNA Damage Control Active Silc Sheer 2.0 SPF40 giúp tăng cường dưỡng ẩm, chống nắng bảo vệ ngừa hư tổn và sạm nám, cho làn da khỏe</t>
   </si>
   <si>
-    <t>kem-phuc-hoi-sau-tri-lieu-dermaceutic-k-ceutic.png</t>
-  </si>
-  <si>
-    <t>makeuptools-icon.png</t>
+    <t>makeuptools-icon.ico</t>
+  </si>
+  <si>
+    <t>Kem dưỡng trắng da và trang điểm toàn thân Sakura Skin Whitening BB Body Cream</t>
+  </si>
+  <si>
+    <t>kem-duong-trang-da-va-trang-diem-nhe-toan-than-sakura-skin-whitening-bb-body-cream.png</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>Kem dưỡng trắng da và trang điểm toàn thân Sakura Skin Whitening BB Body Cream đến từ Nhật Bản sẽ mang đến cho bạn sự tự tin và nổi bật giúp làn da bạn trắng sáng ngay lập tức và che phủ tức thì mọi khuyết điểm trên da.</t>
   </si>
   <si>
     <t>Phấn nước trang điểm Bella Belle Air DD Cushion SPF50+ / PA+++</t>
@@ -69,16 +93,22 @@
     <t>kem-trang-diem-bella-belle-air-dd-cushion-spf50-pa.jpg</t>
   </si>
   <si>
+    <t>Bộ kem tắm trắng Sakura Super White Pro System</t>
+  </si>
+  <si>
     <t>Hàn Quốc</t>
   </si>
   <si>
-    <t>Sữa Dưỡng Thể iS Clinical Body Complexa</t>
+    <t>bo-kem-tam-trang-cao-cap-tieu-chuan-spa-sakura-super-white-spa-system.png</t>
   </si>
   <si>
     <t>Phấn nước trang điểm Bella Belle Air DD Cushion SPF50+ / PA+++ với chất kem siêu mỏng, siêu lỏng, siêu nhẹ, độ che phủ vượt trội, ẩn giấu mọi khuyết điểm trên da mang đến cho phái đẹp một làn da trắng hồng, mịn màng và tràn đầy sức sống.</t>
   </si>
   <si>
-    <t>iS_Clinical_Body_Complex_180ml.png</t>
+    <t>Bộ kem tắm trắng Sakura Super White Pro System tăng cường bổ sung dưỡng chất thẩm thấu sâu giúp dưỡng da sáng trắng mịn màng từ bên trong.</t>
+  </si>
+  <si>
+    <t>Pháp</t>
   </si>
   <si>
     <t>Phấn phủ dưỡng trắng da, giảm nhờn, ngừa mụn JCprogram C</t>
@@ -87,130 +117,148 @@
     <t>phan-phu-duong-trang-da-giam-mun-jc-program-31.jpg</t>
   </si>
   <si>
-    <t>Nhật Bản</t>
-  </si>
-  <si>
-    <t>Sữa Dưỡng Thể iS Clinical Body Complexa với công thức thảo được độc đáo giúp dưỡng ẩm làm mềm da, giúp da căng đầy, săn chắc, sáng màu tự nhiên.</t>
+    <t>Neckperfect Complex Is Clinical</t>
+  </si>
+  <si>
+    <t>kemduongco.jpg</t>
   </si>
   <si>
     <t>Phấn phủ dưỡng trắng da, giảm nhờn, ngừa mụn JCprogram C ngăn ngừa vết cháy nắng, viêm da do tia cực tím và mụn trứng cá cũng nhanh chóng giảm. Ngoài ra, sản phẩm còn hấp thụ bã nhờn dư thừa để tạo ra một làn da mịn màng.</t>
   </si>
   <si>
-    <t>body-icon.png</t>
+    <t>Neckperfect Complex Is Clinical là kem chống lão hóa vùng da cổ, được chiết xuất từ nguồn thành phần tự nhiên thực vật, axit hyaluronic, vitamin B5… giúp đẩy lùi các dấu hiệu lão hóa, dưỡng săn chắc, tái tạo cấu trúc da cổ mịn màng.</t>
   </si>
   <si>
     <t>Kem che khuyết điểm Even Better Brighter BB Cream SPF 30</t>
   </si>
   <si>
+    <t>Gel làm hồng nhũ hoa Bella Belle Sensitive Areas Solution Lightening Gel</t>
+  </si>
+  <si>
     <t>kem-che-khuyet-diem-even-better-brighter-bb-cream-spf-30.jpg</t>
   </si>
   <si>
-    <t>Kem dưỡng trắng da và trang điểm toàn thân Sakura Skin Whitening BB Body Cream</t>
+    <t>kem-duong-trang-da-vung-nhay-cam-bella-belle-sensitive-areas-solution-lightening-gel.png</t>
+  </si>
+  <si>
+    <t>Kem phục hồi sau trị liệu Dermaceutic K Ceutic giúp nuôi dưỡng da sau khi điều trị thẩm mỹ, làm dịu da cung cấp các chất dinh dưỡng cần thiết. K ceutic giảm đỏ , viêm và tình trạng kích ứng da.</t>
+  </si>
+  <si>
+    <t>face-icon.ico</t>
   </si>
   <si>
     <t>Kem che khuyết điểm Even Better Brighter BB Cream SPF 30 giúp dưỡng ẩm, làm sáng và đều màu da, với công thức dành riêng cho làn da châu Á, được sản xuất bằng công nghệ tiên tiến độc quyền của Clinique, mang đến tác dụng trang điểm và dưỡng da vượt trội.</t>
   </si>
   <si>
-    <t>Pháp</t>
-  </si>
-  <si>
-    <t>kem-duong-trang-da-va-trang-diem-nhe-toan-than-sakura-skin-whitening-bb-body-cream.png</t>
+    <t>Gel làm hồng nhũ hoa Bella Belle Sensitive Areas Solution Lightening Gel với thành phần chiết xuất tự nhiên lành tính, là nguồn dưỡng ẩm và nuôi dưỡng da sáng khỏe tự nhiên. Sản phẩm có thể giúp làm hồng vùng nhũ hoa, cho da hồng hào gợi cảm.</t>
   </si>
   <si>
     <t>Kem nền trang điểm BB Astalift BB Cream SPF50+/PA++++</t>
   </si>
   <si>
+    <t>Xịt khoáng giúp da tươi mát và căng mịn iS Clinical Copper Firming Mist</t>
+  </si>
+  <si>
+    <t>Kem dưỡng thể Paula’s Choice Resist Skin Revealing Body Lotion With 10‰ AHA</t>
+  </si>
+  <si>
     <t>kem-nen-trang-diem-bb-astalift-bb-cream-spf50-pa-natural.png</t>
   </si>
   <si>
-    <t>Kem dưỡng trắng da và trang điểm toàn thân Sakura Skin Whitening BB Body Cream đến từ Nhật Bản sẽ mang đến cho bạn sự tự tin và nổi bật giúp làn da bạn trắng sáng ngay lập tức và che phủ tức thì mọi khuyết điểm trên da.</t>
+    <t>xit-duong-giup-da-tuoi-mat-va-cang-min-is-clinical-copper-firming-mist.png</t>
+  </si>
+  <si>
+    <t>kem-duong-the-paula-s-choice-resist-skin-revealing-body-lotion-with-10-aha.png</t>
+  </si>
+  <si>
+    <t>Ý</t>
   </si>
   <si>
     <t>Kem nền trang điểm BB Astalift BB Cream SPF50+/PA++++ là sản phẩm đa chức năng đáp ứng các chức năng trong trang điểm nền bao gồm chống nắng, kem lót, che khuyết điểm và lớp nền.</t>
   </si>
   <si>
+    <t>Kem dưỡng thể Paula’s Choice Resist Skin Revealing Body Lotion With 10‰ AHA giúp làn da khô, thiếu sức sống được nuôi dưỡng trở nên trắng sáng, láng mịn, hồng hào tự nhiên.</t>
+  </si>
+  <si>
+    <t>Xịt khoáng giúp da tươi mát và căng mịn Cooper Firming Mist Is Clinical bổ sung độ ẩm, giúp cho da mềm mịn hơn; đặc biệt với các bạn thường xuyên trang điểm thì nước khoáng xịt là giải pháp hoàn hảo nhanh và tiện lợi tránh tình trạng lớp trang điểm bị khô, mốc…đặc biệt là vào mùa hanh khô.</t>
+  </si>
+  <si>
     <t>Son môi Clinique Lip Pop Colour + Primer</t>
   </si>
   <si>
-    <t>Kem phục hồi sau trị liệu Dermaceutic K Ceutic giúp nuôi dưỡng da sau khi điều trị thẩm mỹ, làm dịu da cung cấp các chất dinh dưỡng cần thiết. K ceutic giảm đỏ , viêm và tình trạng kích ứng da.</t>
-  </si>
-  <si>
     <t>nude-pop.png</t>
   </si>
   <si>
-    <t>Bộ kem tắm trắng Sakura Super White Pro System</t>
-  </si>
-  <si>
-    <t>face-icon.png</t>
-  </si>
-  <si>
-    <t>bo-kem-tam-trang-cao-cap-tieu-chuan-spa-sakura-super-white-spa-system.png</t>
+    <t>Kem dưỡng da tay Cell Shock Age Cellular Recovery 3D Hand Cream Swissline</t>
+  </si>
+  <si>
+    <t>Gel Chống Nắng Heliocare Gel SPF50 Cho Da Nhờn, Mụn</t>
+  </si>
+  <si>
+    <t>kem-tai-tao-te-bao-tre-hoa-da-cho-doi-tay-cell-shock-age-cellular-recovery-3d-hand-cream-1.png</t>
+  </si>
+  <si>
+    <t>gel-chong-nang-heliocare-gel-spf50-cho-da-nhon-mun.png</t>
   </si>
   <si>
     <t>Son môi Clinique Lip Pop Colour + Primer lên màu cực chuẩn và bền màu suốt 8 tiếng đồng hồ nhờ tích hợp lớp lót siêu mịn mượt cho đôi môi thêm phần quyết rũ và sống động.</t>
   </si>
   <si>
-    <t>Xịt khoáng giúp da tươi mát và căng mịn iS Clinical Copper Firming Mist</t>
-  </si>
-  <si>
-    <t>Bộ kem tắm trắng Sakura Super White Pro System tăng cường bổ sung dưỡng chất thẩm thấu sâu giúp dưỡng da sáng trắng mịn màng từ bên trong.</t>
-  </si>
-  <si>
-    <t>xit-duong-giup-da-tuoi-mat-va-cang-min-is-clinical-copper-firming-mist.png</t>
-  </si>
-  <si>
-    <t>Ý</t>
+    <t>Thụy Sĩ</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Kem dưỡng da tay Cell Shock Age Cellular Recovery 3D Hand Cream Swissline cho đôi tay thêm mịn màng và tươi trẻ.</t>
+  </si>
+  <si>
+    <t>Gel Chống Nắng Heliocare Gel SPF50 Cho Da Nhờn, Mụn với lớp màng lọc thông minh bảo vệ da khỏi tác hại của tia UV, ngăn ngừa lão hóa da</t>
   </si>
   <si>
     <t>Son dưỡng có màu dạng bút chì Clinique Chubby Stick Intense Moisturizing</t>
   </si>
   <si>
-    <t>Xịt khoáng giúp da tươi mát và căng mịn Cooper Firming Mist Is Clinical bổ sung độ ẩm, giúp cho da mềm mịn hơn; đặc biệt với các bạn thường xuyên trang điểm thì nước khoáng xịt là giải pháp hoàn hảo nhanh và tiện lợi tránh tình trạng lớp trang điểm bị khô, mốc…đặc biệt là vào mùa hanh khô.</t>
-  </si>
-  <si>
-    <t>Neckperfect Complex Is Clinical</t>
-  </si>
-  <si>
     <t>son-duong-co-mau-dang-but-chi-clinique-chubby-stick-intense-moisturizing-Chunkiest-Chili1.png</t>
   </si>
   <si>
-    <t>kemduongco.jpg</t>
-  </si>
-  <si>
-    <t>Gel Chống Nắng Heliocare Gel SPF50 Cho Da Nhờn, Mụn</t>
-  </si>
-  <si>
-    <t>gel-chong-nang-heliocare-gel-spf50-cho-da-nhon-mun.png</t>
+    <t>Serum nâng ngực Dr Spiller Neck and Décolleté Cream</t>
+  </si>
+  <si>
+    <t>Tế bào gốc Mesoestetic Stem Cell Serum Restructuractive</t>
+  </si>
+  <si>
+    <t>serum-nang-nguc-dr-spiller-neck-and-decollete-cream.jpg</t>
   </si>
   <si>
     <t>Son dưỡng có màu dạng bút chì Clinique Chubby Stick Intense Moisturizing là loại son dưỡng ẩm môi hàng ngày có tích hợp màu vào trong suốt như pha lê, bắt sáng và thật sự mềm mượt đôi môi, tự nhiên.</t>
   </si>
   <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>Gel Chống Nắng Heliocare Gel SPF50 Cho Da Nhờn, Mụn với lớp màng lọc thông minh bảo vệ da khỏi tác hại của tia UV, ngăn ngừa lão hóa da</t>
+    <t>te-bao-goc-mesoestetic-stem-cell-serum-restructurative-dung-tai-phong-kham.png</t>
+  </si>
+  <si>
+    <t>Serum nâng ngực Dr Spiller Neck and Décolleté Cream với chiết xuất tự nhiên giúp dưỡng ẩm, áp dụng cho vùng ngực cổ giúp ngực săn chắc, căng mịn</t>
+  </si>
+  <si>
+    <t>Tế bào gốc Mesoestetic Stem Cell Serum Restructuractive tái tạo, nuôi dưỡng da chuyên sâu giúp da cải thiện độ đàn hồi, săn chắc, tươi trẻ tự nhiên.</t>
   </si>
   <si>
     <t>Phấn má hồng Astalift Cheek Color Pink</t>
   </si>
   <si>
-    <t>Tế bào gốc Mesoestetic Stem Cell Serum Restructuractive</t>
-  </si>
-  <si>
-    <t>te-bao-goc-mesoestetic-stem-cell-serum-restructurative-dung-tai-phong-kham.png</t>
-  </si>
-  <si>
     <t>phan-ma-hong-astalift-cheek-color-pink.png</t>
   </si>
   <si>
-    <t>Tế bào gốc Mesoestetic Stem Cell Serum Restructuractive tái tạo, nuôi dưỡng da chuyên sâu giúp da cải thiện độ đàn hồi, săn chắc, tươi trẻ tự nhiên.</t>
+    <t>Kem nở ngực Sampar Lift Me Up Bust Cream</t>
+  </si>
+  <si>
+    <t>Kem điều trị giúp giảm lão hóa da Tensage Cream Endocare</t>
   </si>
   <si>
     <t>Phấn má hồng Astalift Cheek Color Pink với các hạt phấn siêu mịn, quyện vào lớp nền, mang đến lớp nền lung linh và tràn đầy sức hút, màu sắc chuẩn và trung thực tạo vẻ đẹp tự nhiên.</t>
   </si>
   <si>
-    <t>Kem điều trị giúp giảm lão hóa da Tensage Cream Endocare</t>
+    <t>kem-no-nguc-sampar-lift-me-up-bust-cream-a.png</t>
   </si>
   <si>
     <t>duong-am-dieu-tri-lao-hoa-da-tensage-cream-endocare.png</t>
@@ -219,100 +267,52 @@
     <t>Kem điều trị giúp giảm lão hóa da Tensage Cream Endocare áp dụng công nghệ sửa chữa chuyên sâu tiên tiến nhất nhằm tái tạo và phục hồi làn da bị hư tổn</t>
   </si>
   <si>
-    <t>Neckperfect Complex Is Clinical là kem chống lão hóa vùng da cổ, được chiết xuất từ nguồn thành phần tự nhiên thực vật, axit hyaluronic, vitamin B5… giúp đẩy lùi các dấu hiệu lão hóa, dưỡng săn chắc, tái tạo cấu trúc da cổ mịn màng.</t>
+    <t>Kem nở ngực Sampar Lift Me Up Bust Cream sử dụng sự kết hợp của các thành phần hoạt tính tự nhiên giúp mang lại hình dáng đẹp cho ngực, độ ẩm dự trữ được bổ sung và sự xuất hiện của vết rạn da bị giảm.</t>
   </si>
   <si>
     <t>Son kem lì 3CE Soft Lip Lacquer Change Mode</t>
   </si>
   <si>
+    <t>son-kem-li-3ce-soft-lip-lacquer-change-mode-do-lanh-1.png</t>
+  </si>
+  <si>
     <t>iS Clinical Tri-Active Exfoliant</t>
   </si>
   <si>
-    <t>son-kem-li-3ce-soft-lip-lacquer-change-mode-do-lanh-1.png</t>
-  </si>
-  <si>
     <t>iS_Clinical_Tri-Active_Exfoliant1.png</t>
   </si>
   <si>
+    <t>Son kem lì 3CE Soft Lip Lacquer Change Mode có tông đỏ lạnh làm chủ đạo, rất phù hợp với những ai yêu thích sự trẻ trung, năng động.</t>
+  </si>
+  <si>
     <t>iS Clinical Tri-Active Exfoliant lý tưởng với 3 tác động để loại bỏ tế bào da chết cho làn da sáng mịn, mờ vết thâm, da trắng hồng trẻ trung giàu sức sống.</t>
   </si>
   <si>
-    <t>Son kem lì 3CE Soft Lip Lacquer Change Mode có tông đỏ lạnh làm chủ đạo, rất phù hợp với những ai yêu thích sự trẻ trung, năng động.</t>
-  </si>
-  <si>
-    <t>Gel làm hồng nhũ hoa Bella Belle Sensitive Areas Solution Lightening Gel</t>
-  </si>
-  <si>
-    <t>kem-duong-trang-da-vung-nhay-cam-bella-belle-sensitive-areas-solution-lightening-gel.png</t>
+    <t>Kem sinh học đa chức năng</t>
   </si>
   <si>
     <t>Kem dưỡng trắng da, mờ đốm nâu Frezyderm Spot End Corrective</t>
   </si>
   <si>
+    <t>kem-sinh-hoc-da-chuc-nang-nuoi-duong-bao-ve-da-va-tao-nen-make-up-hoan-hao-aqua-vitale-bloom-flash.png</t>
+  </si>
+  <si>
     <t>kem-duong-trang-da-mo-dom-nau-frezyderm-spot-end-corrective.png</t>
   </si>
   <si>
+    <t>Thụy Sỹ</t>
+  </si>
+  <si>
     <t>Hy lạp</t>
   </si>
   <si>
-    <t>Kem sinh học đa chức năng</t>
-  </si>
-  <si>
-    <t>Gel làm hồng nhũ hoa Bella Belle Sensitive Areas Solution Lightening Gel với thành phần chiết xuất tự nhiên lành tính, là nguồn dưỡng ẩm và nuôi dưỡng da sáng khỏe tự nhiên. Sản phẩm có thể giúp làm hồng vùng nhũ hoa, cho da hồng hào gợi cảm.</t>
-  </si>
-  <si>
     <t>Kem dưỡng trắng da, mờ đốm nâu Frezyderm Spot End Corrective giúp cải thiện nhanh và làm trắng sáng tập trung trực tiếp trên các vết thâm, làm mờ các đốm nâu.</t>
   </si>
   <si>
+    <t>Kem sinh học đa chức năng nuôi dưỡng, bảo vệ da và tạo nền make-up hoàn hảo Aqua Vitale Bloom Flash sẽ mang lại cho bạn vẻ đẹp trong veo hợp đúng theo xu hướng trang điểm trong suốt “No makeup – makeup” như phép màu hô biến làn da bạn trở nên xinh đẹp và rạng rỡ chỉ trong 1 bước sử dụng.</t>
+  </si>
+  <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>kem-sinh-hoc-da-chuc-nang-nuoi-duong-bao-ve-da-va-tao-nen-make-up-hoan-hao-aqua-vitale-bloom-flash.png</t>
-  </si>
-  <si>
-    <t>Kem dưỡng thể Paula’s Choice Resist Skin Revealing Body Lotion With 10‰ AHA</t>
-  </si>
-  <si>
-    <t>Thụy Sỹ</t>
-  </si>
-  <si>
-    <t>kem-duong-the-paula-s-choice-resist-skin-revealing-body-lotion-with-10-aha.png</t>
-  </si>
-  <si>
-    <t>Kem sinh học đa chức năng nuôi dưỡng, bảo vệ da và tạo nền make-up hoàn hảo Aqua Vitale Bloom Flash sẽ mang lại cho bạn vẻ đẹp trong veo hợp đúng theo xu hướng trang điểm trong suốt “No makeup – makeup” như phép màu hô biến làn da bạn trở nên xinh đẹp và rạng rỡ chỉ trong 1 bước sử dụng.</t>
-  </si>
-  <si>
-    <t>Kem dưỡng thể Paula’s Choice Resist Skin Revealing Body Lotion With 10‰ AHA giúp làn da khô, thiếu sức sống được nuôi dưỡng trở nên trắng sáng, láng mịn, hồng hào tự nhiên.</t>
-  </si>
-  <si>
-    <t>Kem dưỡng da tay Cell Shock Age Cellular Recovery 3D Hand Cream Swissline</t>
-  </si>
-  <si>
-    <t>kem-tai-tao-te-bao-tre-hoa-da-cho-doi-tay-cell-shock-age-cellular-recovery-3d-hand-cream-1.png</t>
-  </si>
-  <si>
-    <t>Thụy Sĩ</t>
-  </si>
-  <si>
-    <t>Kem dưỡng da tay Cell Shock Age Cellular Recovery 3D Hand Cream Swissline cho đôi tay thêm mịn màng và tươi trẻ.</t>
-  </si>
-  <si>
-    <t>Serum nâng ngực Dr Spiller Neck and Décolleté Cream</t>
-  </si>
-  <si>
-    <t>serum-nang-nguc-dr-spiller-neck-and-decollete-cream.jpg</t>
-  </si>
-  <si>
-    <t>Serum nâng ngực Dr Spiller Neck and Décolleté Cream với chiết xuất tự nhiên giúp dưỡng ẩm, áp dụng cho vùng ngực cổ giúp ngực săn chắc, căng mịn</t>
-  </si>
-  <si>
-    <t>Kem nở ngực Sampar Lift Me Up Bust Cream</t>
-  </si>
-  <si>
-    <t>kem-no-nguc-sampar-lift-me-up-bust-cream-a.png</t>
-  </si>
-  <si>
-    <t>Kem nở ngực Sampar Lift Me Up Bust Cream sử dụng sự kết hợp của các thành phần hoạt tính tự nhiên giúp mang lại hình dáng đẹp cho ngực, độ ẩm dự trữ được bổ sung và sự xuất hiện của vết rạn da bị giảm.</t>
   </si>
   <si>
     <t>Bộ sản phẩm chăm sóc da mụn Is Clinical</t>
@@ -354,85 +354,115 @@
     <t>Nước hoa nữ Kenzo Flower By Kenzo Eau De Lumiere EDT</t>
   </si>
   <si>
+    <t>nuoc-hoa-nu-kenzo-flower-by-kenzo-eau-de-lumiere-edt-50ml-a.png</t>
+  </si>
+  <si>
+    <t>Nước hoa nữ Kenzo Flower By Kenzo Eau De Lumiere EDT sở hữu một mùi hương nhẹ nhàng nhưng cũng đầy lôi cuốn. Hương nước hoa này là sự kết hợp tuyệt vời của những bông hoa thơm ngát ngày Hè.</t>
+  </si>
+  <si>
+    <t>Perfume-icon.ico</t>
+  </si>
+  <si>
     <t>Serum mọc mi RevítaLash</t>
   </si>
   <si>
-    <t>nuoc-hoa-nu-kenzo-flower-by-kenzo-eau-de-lumiere-edt-50ml-a.png</t>
+    <t>Nước hoa Creed Silver Mountain Water</t>
   </si>
   <si>
     <t>serummocmi2.0ml_.png</t>
   </si>
   <si>
-    <t>Nước hoa nữ Kenzo Flower By Kenzo Eau De Lumiere EDT sở hữu một mùi hương nhẹ nhàng nhưng cũng đầy lôi cuốn. Hương nước hoa này là sự kết hợp tuyệt vời của những bông hoa thơm ngát ngày Hè.</t>
+    <t>100.jpg</t>
   </si>
   <si>
     <t>Serum mọc mi RevítaLash là sản phẩm bán chạy nhất tại Mỹ dành cho phái đẹp muốn tô điểm hàng lông mi của mình cho dài, dày và sậm màu, cong vút hơn!</t>
   </si>
   <si>
-    <t>Perfume-icon.png</t>
-  </si>
-  <si>
-    <t>eyes-icon.png</t>
-  </si>
-  <si>
-    <t>Nước hoa Creed Silver Mountain Water</t>
+    <t>Nước hoa Creed Silver Mountain Water ra đời với ý tưởng về những con suối trong trẻo, lấp lánh chảy dài xuyên suốt các ngọn núi cao trong dãy núi Alps của Thụy Sĩ. Là một hương thơm unisex dành cho cả hai giới nam và nữ.</t>
+  </si>
+  <si>
+    <t>eyes-icon.ico</t>
+  </si>
+  <si>
+    <t>Nước hoa nữ Paco Rabanne Pure XS EDP</t>
+  </si>
+  <si>
+    <t>nuoc-hoa-nu-paco-rabanne-pure-xs-edp-80ml.png</t>
   </si>
   <si>
     <t>Serum mọc mi LATISSE</t>
   </si>
   <si>
-    <t>100.jpg</t>
+    <t>Nước hoa nữ Paco Rabanne Pure XS EDP một phiên bản nước hoa trẻ trung, cá tính, đầy tự tin, quyến rũ, gợi cảm nhưng đầy quyền lực khiến phụ nữ khác phải ganh tị.</t>
   </si>
   <si>
     <t>serum-moc-dai-mi-solution-3ml.jpg</t>
   </si>
   <si>
-    <t>Nước hoa Creed Silver Mountain Water ra đời với ý tưởng về những con suối trong trẻo, lấp lánh chảy dài xuyên suốt các ngọn núi cao trong dãy núi Alps của Thụy Sĩ. Là một hương thơm unisex dành cho cả hai giới nam và nữ.</t>
+    <t>Nước hoa Kilian Woman in Gold</t>
+  </si>
+  <si>
+    <t>nuoc-hoa-kilian-woman-in-gold-50ml.jpg</t>
+  </si>
+  <si>
+    <t>Nước hoa Kilian Woman in Gold là hương thơm thời thượng với những nốt hương nhẹ nhàng như những chiếc lá vàng rơi, có sự ẩn hiện đối lập của ánh sáng và bóng tối.</t>
   </si>
   <si>
     <t>Serum mọc mi LATISSE cung cấp dưỡng chất thẩm thấu vào nang lông, giúp kích thích và nuôi dưỡng tái tạo mi mọc dài, dày, sậm màu và cong vút quyến rũ.</t>
   </si>
   <si>
-    <t>Nước hoa nữ Paco Rabanne Pure XS EDP</t>
+    <t>Nước hoa Chanel Gabrielle For Women</t>
+  </si>
+  <si>
+    <t>nuoc-hoa-chanel-gabrielle-for-women.png</t>
+  </si>
+  <si>
+    <t>Nước hoa Chanel Gabrielle For Women hương thơm mới của dòng chanel dành cho nữ, Chanel Gabrielle được ra mắt năm 2017, một hương thơm hoa cỏ rạng rỡ, lấp lánh, mang một nét nữ tính khó cưỡng.</t>
   </si>
   <si>
     <t>Dầu gội giúp giảm rụng tóc Herbgrow Shampoo</t>
   </si>
   <si>
-    <t>nuoc-hoa-nu-paco-rabanne-pure-xs-edp-80ml.png</t>
-  </si>
-  <si>
     <t>dau-goi-tri-rung-toc-herbgrow-shampoo.jpg</t>
   </si>
   <si>
-    <t>Nước hoa nữ Paco Rabanne Pure XS EDP một phiên bản nước hoa trẻ trung, cá tính, đầy tự tin, quyến rũ, gợi cảm nhưng đầy quyền lực khiến phụ nữ khác phải ganh tị.</t>
+    <t>Nước hoa Dior Joy Eau de Parfum</t>
+  </si>
+  <si>
+    <t>nuoc-hoa-dior-joy-eau-de-parfum.png</t>
   </si>
   <si>
     <t>Dầu gội giúp giảm rụng tóc Herbgrow Shampoo hỗ trợ giúp giảm chứng rụng tóc, giảm rụng tóc đáng kể ngày từ tuần đầu tiên sử dụng.</t>
   </si>
   <si>
-    <t>Nước hoa Kilian Woman in Gold</t>
+    <t>Nước hoa Dior Joy Eau de Parfum lấy cảm hứng từ mùi hương của năng lượng, sự sống động, mềm mại, hạnh phúc và năng lượng tốt.</t>
+  </si>
+  <si>
+    <t>Chai nước hoa Chanel N°5 Eau De Parfum</t>
   </si>
   <si>
     <t>Dầu gội MD Revitalizing Shampoo</t>
   </si>
   <si>
-    <t>nuoc-hoa-kilian-woman-in-gold-50ml.jpg</t>
+    <t>nuoc-hoa-chanel-n-5-eau-de-parfum-red-edition.jpg</t>
   </si>
   <si>
     <t>dau-goi-moc-toc-day-dai-ngan-ngua-rung-toc-giup-bong-muot-tu-nhien-khoe-manh-md-revitalizing-shampoo2.png</t>
   </si>
   <si>
-    <t>Nước hoa Kilian Woman in Gold là hương thơm thời thượng với những nốt hương nhẹ nhàng như những chiếc lá vàng rơi, có sự ẩn hiện đối lập của ánh sáng và bóng tối.</t>
+    <t>Chai nước hoa Chanel N°5 Eau De Parfum ra mắt năm 1986 được sáng tạo dựa trên hương thơm kinh điển huyền thoại của Chanel N°5 năm 1921 với mong muốn giữ trọn vẻ đẹp và phong cách huyền thoại của loại nước hoa này với cách thể hiện mới mẻ và hiện đại hơn.</t>
   </si>
   <si>
     <t>Dầu gội MD Revitalizing Shampoo là sản phẩm dành cho tóc khô, yếu, thiếu sứ sống, tóc dầu, tóc mỏng, giúp tóc chắc khỏe, suôn mềm, hạn chế gãy rụng</t>
   </si>
   <si>
-    <t>Nước hoa Chanel Gabrielle For Women</t>
-  </si>
-  <si>
-    <t>nuoc-hoa-chanel-gabrielle-for-women.png</t>
+    <t>Set nước hoa nữ Narciso Rodriguez Poudree 2pcs</t>
+  </si>
+  <si>
+    <t>set-nuoc-hoa-nu-narciso-rodriguez-poudree-2pcs.png</t>
+  </si>
+  <si>
+    <t>Set nước hoa nữ Narciso Rodriguez Poudree 2pcs thoảng như tiếng thì thầm nhẹ toả khắp cơ thể trần của người phụ nữ, gợi lên vẻ quyến rũ đầy ma mị.</t>
   </si>
   <si>
     <t>Dầu gội và tắm cao cấp 2 trong 1 Paula’s Choice All Over Hair and Body Shampoo</t>
@@ -441,79 +471,49 @@
     <t>dau-goi-va-tam-cao-cap-2-trong-1-paula-s-choice-all-over-hair-and-body-shampoo.png</t>
   </si>
   <si>
-    <t>Nước hoa Chanel Gabrielle For Women hương thơm mới của dòng chanel dành cho nữ, Chanel Gabrielle được ra mắt năm 2017, một hương thơm hoa cỏ rạng rỡ, lấp lánh, mang một nét nữ tính khó cưỡng.</t>
+    <t>Set Nước Hoa Nữ Narciso Set EDP 3x10ml</t>
+  </si>
+  <si>
+    <t>set-nuoc-hoa-nu-narciso-set-edp-3x10ml.png</t>
+  </si>
+  <si>
+    <t>Set Nước Hoa Nữ Narciso Set EDP 3x10ml hội tụ hai mùi hương được chuộng nhất của hãng hứa hẹn mang đến sự tinh tế cũng như quý phái và quyến rũ mà bất cứ cô gái nào cũng muốn sở hữu mùi hương ấy.</t>
   </si>
   <si>
     <t>Dầu gội và tắm cao cấp 2 trong 1 Paula’s Choice All Over Hair and Body Shampoo giúp loại bỏ hết bụi bẩn trên tóc và cơ thể, đồng thời cung cấp độ ẩm cần thiết cho da, an toàn cho mái tóc nhuộm màu.</t>
   </si>
   <si>
-    <t>Nước hoa Dior Joy Eau de Parfum</t>
-  </si>
-  <si>
-    <t>nuoc-hoa-dior-joy-eau-de-parfum.png</t>
+    <t>Nước hoa cho nữ DKNY Be Desired</t>
+  </si>
+  <si>
+    <t>nuoc-hoa-cho-nu-dkny-be-desired.jpg</t>
   </si>
   <si>
     <t>Bộ dầu gội giúp mọc tóc và ngăn ngừa rụng tóc MD Revitalizing</t>
   </si>
   <si>
-    <t>Nước hoa Dior Joy Eau de Parfum lấy cảm hứng từ mùi hương của năng lượng, sự sống động, mềm mại, hạnh phúc và năng lượng tốt.</t>
+    <t>Nước hoa cho nữ DKNY Be Desired như dẫn lối bạn bước vào một khu vườn đô thị với hương thơm tươi mát và đầy chất gây nghiện của những người phụ nữ hiện đại.</t>
   </si>
   <si>
     <t>bo-dau-goi-moc-toc-day-dai-ngan-ngua-rung-toc-giup-bong-muot-tu-nhien-khoe-manh-md-revitalizing-.jpg</t>
   </si>
   <si>
-    <t>Chai nước hoa Chanel N°5 Eau De Parfum</t>
-  </si>
-  <si>
-    <t>nuoc-hoa-chanel-n-5-eau-de-parfum-red-edition.jpg</t>
-  </si>
-  <si>
-    <t>Chai nước hoa Chanel N°5 Eau De Parfum ra mắt năm 1986 được sáng tạo dựa trên hương thơm kinh điển huyền thoại của Chanel N°5 năm 1921 với mong muốn giữ trọn vẻ đẹp và phong cách huyền thoại của loại nước hoa này với cách thể hiện mới mẻ và hiện đại hơn.</t>
-  </si>
-  <si>
     <t>Bộ dầu gội giúp mọc tóc và ngăn ngừa rụng tóc MD Revitalizing giúp dài, bóng mượt tự nhiên và khoẻ mạnh</t>
   </si>
   <si>
-    <t>Set nước hoa nữ Narciso Rodriguez Poudree 2pcs</t>
-  </si>
-  <si>
-    <t>set-nuoc-hoa-nu-narciso-rodriguez-poudree-2pcs.png</t>
-  </si>
-  <si>
-    <t>Set nước hoa nữ Narciso Rodriguez Poudree 2pcs thoảng như tiếng thì thầm nhẹ toả khắp cơ thể trần của người phụ nữ, gợi lên vẻ quyến rũ đầy ma mị.</t>
-  </si>
-  <si>
     <t>Serum dưỡng dài lông mày và lông mi Image Skincare I Beauty Brown &amp; Lash Enhancement Serum</t>
   </si>
   <si>
-    <t>Set Nước Hoa Nữ Narciso Set EDP 3x10ml</t>
-  </si>
-  <si>
     <t>serum-duong-dai-long-may-va-long-mi-image-skincare-i-beauty-brown-lash-enhancement-serum.png</t>
   </si>
   <si>
-    <t>set-nuoc-hoa-nu-narciso-set-edp-3x10ml.png</t>
-  </si>
-  <si>
     <t>Serum dưỡng dài lông mày và lông mi Image Skincare I Beauty Brown &amp; Lash Enhancement Serum giúp lông mày và lông mi đầy đặn hơn, dài hơn, khoẻ hơn kéo dài tuổi thọ của lông mày và lông mi.</t>
   </si>
   <si>
-    <t>Set Nước Hoa Nữ Narciso Set EDP 3x10ml hội tụ hai mùi hương được chuộng nhất của hãng hứa hẹn mang đến sự tinh tế cũng như quý phái và quyến rũ mà bất cứ cô gái nào cũng muốn sở hữu mùi hương ấy.</t>
-  </si>
-  <si>
-    <t>Nước hoa cho nữ DKNY Be Desired</t>
-  </si>
-  <si>
     <t>Serum mọc tóc MD Hair Restoration Follicle Energizer</t>
   </si>
   <si>
-    <t>nuoc-hoa-cho-nu-dkny-be-desired.jpg</t>
-  </si>
-  <si>
     <t>thuoc-moc-toc-md-hair-restoration-follicle-energizer.png</t>
-  </si>
-  <si>
-    <t>Nước hoa cho nữ DKNY Be Desired như dẫn lối bạn bước vào một khu vườn đô thị với hương thơm tươi mát và đầy chất gây nghiện của những người phụ nữ hiện đại.</t>
   </si>
   <si>
     <t>Serum mọc tóc MD Hair Restoration Follicle Energizer giúp cải thiện mái tóc thưa mỏng, kích thích tăng trưởng tóc, ngăn ngừa tóc rụng, cho mái tóc dày chắc khỏe.</t>
@@ -538,7 +538,7 @@
     <t>Viên uống trắng da, giảm nám, nếp nhăn và sức khỏe tổng thể Murad Firm and Tone Dietary Supplement là giải pháp hoàn hảo giúp hạn chế tối đa quá trình tăng sinh melanin trong cơ thể, đánh bật nám da an toàn, hiệu quả đồng thời làm sáng đều da, cung cấp dưỡng chất cho làn da khỏe mạnh từ bên trong.</t>
   </si>
   <si>
-    <t>Drug-icon.png</t>
+    <t>Drug-icon.ico</t>
   </si>
   <si>
     <t>Viên uống chống nắng Sunsafe Rx</t>
@@ -694,14 +694,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -797,10 +797,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -809,7 +809,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -820,23 +820,23 @@
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7">
         <v>1350000.0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -846,20 +846,20 @@
       <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7">
         <v>1158000.0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -869,20 +869,20 @@
       <c r="B4" s="5">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E4" s="7">
         <v>1022000.0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -892,20 +892,20 @@
       <c r="B5" s="5">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E5" s="7">
         <v>3700000.0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -915,20 +915,20 @@
       <c r="B6" s="5">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E6" s="7">
         <v>1242000.0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -938,20 +938,20 @@
       <c r="B7" s="5">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7">
         <v>4427000.0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -961,23 +961,23 @@
       <c r="B8" s="5">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
+      <c r="C8" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7">
         <v>682000.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M8" s="10"/>
     </row>
@@ -988,7 +988,7 @@
       <c r="B9" s="5">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -998,9 +998,9 @@
         <v>5000000.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>101</v>
       </c>
       <c r="L9" s="11" t="s">
@@ -1017,19 +1017,19 @@
       <c r="B10" s="5">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>3225000.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="L10" s="13"/>
@@ -1042,19 +1042,19 @@
       <c r="B11" s="5">
         <v>10.0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>1910000.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>109</v>
       </c>
       <c r="L11" s="15"/>
@@ -1265,7 +1265,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1277,7 +1277,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1289,218 +1289,218 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.0</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
         <v>2157000.0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.0</v>
       </c>
       <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
         <v>790000.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.0</v>
       </c>
       <c r="B4" s="5">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3">
         <v>450000.0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.0</v>
       </c>
       <c r="B5" s="5">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3">
         <v>500000.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.0</v>
       </c>
       <c r="B6" s="5">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
         <v>849000.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.0</v>
       </c>
       <c r="B7" s="5">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
         <v>950000.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.0</v>
       </c>
       <c r="B8" s="5">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3">
         <v>2015000.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.0</v>
       </c>
       <c r="B9" s="5">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3">
         <v>2112000.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>0.0</v>
       </c>
       <c r="B10" s="5">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800000.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1537,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1546,241 +1546,241 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.0</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
         <v>1600000.0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.0</v>
       </c>
       <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3">
         <v>950000.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.0</v>
       </c>
       <c r="B4" s="5">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3">
+        <v>649000.0</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>649000.0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.0</v>
       </c>
       <c r="B5" s="5">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3">
         <v>1000000.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.0</v>
       </c>
       <c r="B6" s="5">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3">
         <v>1250000.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.0</v>
       </c>
       <c r="B7" s="5">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3">
         <v>550000.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.0</v>
       </c>
       <c r="B8" s="5">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3">
         <v>520000.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.0</v>
       </c>
       <c r="B9" s="5">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3">
         <v>810000.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>0.0</v>
       </c>
       <c r="B10" s="5">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3">
         <v>360000.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>0.0</v>
       </c>
       <c r="B11" s="5">
         <v>10.0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="3">
         <v>2150000.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1816,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1825,217 +1825,217 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.0</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="3">
         <v>1500000.0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>117</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.0</v>
       </c>
       <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="3">
         <v>2800000.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.0</v>
       </c>
       <c r="B4" s="5">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3">
         <v>1100000.0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.0</v>
       </c>
       <c r="B5" s="5">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="3">
         <v>1122000.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.0</v>
       </c>
       <c r="B6" s="5">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="3">
         <v>515000.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>141</v>
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.0</v>
       </c>
       <c r="B7" s="5">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="3">
         <v>2149000.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.0</v>
       </c>
       <c r="B8" s="5">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="3">
         <v>1750000.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>158</v>
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.0</v>
       </c>
       <c r="B9" s="5">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="3">
         <v>3203000.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>0.0</v>
       </c>
       <c r="B10" s="5">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>795000.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2081,241 +2081,241 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.0</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1395000.0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="2">
-        <v>1395000.0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>116</v>
+      <c r="I2" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.0</v>
       </c>
       <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="3">
         <v>9300000.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.0</v>
       </c>
       <c r="B4" s="5">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2780000.0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2780000.0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.0</v>
       </c>
       <c r="B5" s="5">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="3">
         <v>8500000.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.0</v>
       </c>
       <c r="B6" s="5">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3">
         <v>4005000.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.0</v>
       </c>
       <c r="B7" s="5">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="3">
         <v>3770000.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.0</v>
       </c>
       <c r="B8" s="5">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="3">
         <v>5160000.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.0</v>
       </c>
       <c r="B9" s="5">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="3">
         <v>3141000.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>153</v>
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>0.0</v>
       </c>
       <c r="B10" s="5">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3">
         <v>1521000.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>159</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>0.0</v>
       </c>
       <c r="B11" s="5">
         <v>10.0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="3">
         <v>2370000.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>164</v>
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2351,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2360,217 +2360,217 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.0</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>3800000.0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.0</v>
       </c>
       <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>900000.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.0</v>
       </c>
       <c r="B4" s="5">
         <v>3.0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1282600.0</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.0</v>
       </c>
       <c r="B5" s="5">
         <v>4.0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2600180.0</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.0</v>
       </c>
       <c r="B6" s="5">
         <v>5.0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2465000.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.0</v>
       </c>
       <c r="B7" s="5">
         <v>6.0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>1704000.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.0</v>
       </c>
       <c r="B8" s="5">
         <v>7.0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>1350000.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.0</v>
       </c>
       <c r="B9" s="5">
         <v>8.0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1575000.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>0.0</v>
       </c>
       <c r="B10" s="5">
         <v>9.0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>1200000.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Da mặt" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Body" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Trang điểm" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Tóc mi mày" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Nước hoa" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Viên uống bổ sung" sheetId="6" r:id="rId8"/>
+    <sheet name="Da mặt" sheetId="1" r:id="rId1"/>
+    <sheet name="Body" sheetId="2" r:id="rId2"/>
+    <sheet name="Trang điểm" sheetId="3" r:id="rId3"/>
+    <sheet name="Tóc mi mày" sheetId="4" r:id="rId4"/>
+    <sheet name="Nước hoa" sheetId="5" r:id="rId5"/>
+    <sheet name="Viên uống bổ sung" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -622,149 +626,565 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,22 +1192,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.86"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="47.14"/>
-    <col customWidth="1" min="4" max="4" width="53.0"/>
-    <col customWidth="1" min="7" max="7" width="43.29"/>
-    <col customWidth="1" min="9" max="9" width="53.86"/>
-    <col customWidth="1" min="10" max="10" width="105.86"/>
-    <col customWidth="1" min="12" max="12" width="23.14"/>
+    <col min="1" max="1" width="5.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="47.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="7" max="7" width="43.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="53.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="105.857142857143" customWidth="1"/>
+    <col min="12" max="12" width="23.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,12 +1234,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -827,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="7">
-        <v>1350000.0</v>
+        <v>1350000</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -839,12 +1260,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>46</v>
@@ -853,7 +1274,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="7">
-        <v>1158000.0</v>
+        <v>1158000</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>51</v>
@@ -862,12 +1283,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>58</v>
@@ -876,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="7">
-        <v>1022000.0</v>
+        <v>1022000</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>63</v>
@@ -885,12 +1306,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>69</v>
@@ -899,7 +1320,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="7">
-        <v>3700000.0</v>
+        <v>3700000</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>63</v>
@@ -908,12 +1329,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>78</v>
@@ -922,7 +1343,7 @@
         <v>81</v>
       </c>
       <c r="E6" s="7">
-        <v>1242000.0</v>
+        <v>1242000</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>51</v>
@@ -931,12 +1352,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>86</v>
@@ -945,7 +1366,7 @@
         <v>87</v>
       </c>
       <c r="E7" s="7">
-        <v>4427000.0</v>
+        <v>4427000</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
@@ -954,12 +1375,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -968,7 +1389,7 @@
         <v>93</v>
       </c>
       <c r="E8" s="7">
-        <v>682000.0</v>
+        <v>682000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>95</v>
@@ -981,12 +1402,12 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>99</v>
@@ -995,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="7">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -1010,12 +1431,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>104</v>
@@ -1024,7 +1445,7 @@
         <v>105</v>
       </c>
       <c r="E10" s="3">
-        <v>3225000.0</v>
+        <v>3225000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -1035,12 +1456,12 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>107</v>
@@ -1049,7 +1470,7 @@
         <v>108</v>
       </c>
       <c r="E11" s="3">
-        <v>1910000.0</v>
+        <v>1910000</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
@@ -1060,7 +1481,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:8" ht="15.75">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1069,7 +1490,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="2:8" ht="15.75">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1078,7 +1499,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:8" ht="15.75">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1087,7 +1508,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:8" ht="15.75">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1096,35 +1517,35 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="4:8" ht="15.75">
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="4:8" ht="15.75">
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="4:8" ht="15.75">
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="4:8" ht="15.75">
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1133,7 +1554,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:8" ht="15.75">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1142,110 +1563,111 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="5:6" ht="15.75">
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23">
+    <row r="23" spans="5:6" ht="15.75">
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24">
+    <row r="24" spans="5:6" ht="15.75">
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25">
+    <row r="25" spans="5:6" ht="15.75">
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26">
+    <row r="26" spans="5:6" ht="15.75">
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27">
+    <row r="27" spans="5:6" ht="15.75">
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75">
       <c r="F28" s="18"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75">
       <c r="F29" s="18"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75">
       <c r="F30" s="18"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75">
       <c r="F31" s="18"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75">
       <c r="F32" s="18"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75">
       <c r="F33" s="18"/>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75">
       <c r="F34" s="18"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75">
       <c r="F35" s="18"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75">
       <c r="F36" s="18"/>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75">
       <c r="F37" s="18"/>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75">
       <c r="F38" s="18"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75">
       <c r="F39" s="18"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75">
       <c r="F40" s="18"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75">
       <c r="F41" s="18"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75">
       <c r="F42" s="18"/>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75">
       <c r="F43" s="18"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75">
       <c r="F44" s="18"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75">
       <c r="F45" s="18"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75">
       <c r="F46" s="18"/>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75">
       <c r="F47" s="18"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75">
       <c r="F48" s="18"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75">
       <c r="F49" s="18"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75">
       <c r="F50" s="18"/>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75">
       <c r="F51" s="18"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75">
       <c r="F52" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M9:M11"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1254,17 +1676,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="40.29"/>
-    <col customWidth="1" min="4" max="4" width="59.29"/>
-    <col customWidth="1" min="7" max="7" width="35.86"/>
+    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="59.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="35.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1293,12 +1716,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1307,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>2157000.0</v>
+        <v>2157000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -1319,12 +1742,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -1333,7 +1756,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="3">
-        <v>790000.0</v>
+        <v>790000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>21</v>
@@ -1342,12 +1765,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -1356,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="3">
-        <v>450000.0</v>
+        <v>450000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
@@ -1365,12 +1788,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>33</v>
@@ -1379,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="3">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1388,12 +1811,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -1402,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="3">
-        <v>849000.0</v>
+        <v>849000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
@@ -1411,12 +1834,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>47</v>
@@ -1425,7 +1848,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="3">
-        <v>950000.0</v>
+        <v>950000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1434,12 +1857,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>57</v>
@@ -1448,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="3">
-        <v>2015000.0</v>
+        <v>2015000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
@@ -1457,12 +1880,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
@@ -1471,7 +1894,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="3">
-        <v>2112000.0</v>
+        <v>2112000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>63</v>
@@ -1480,12 +1903,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>77</v>
@@ -1494,7 +1917,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="3">
-        <v>1800000.0</v>
+        <v>1800000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -1504,7 +1927,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1513,18 +1937,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="45.0"/>
-    <col customWidth="1" min="4" max="4" width="58.71"/>
-    <col customWidth="1" min="7" max="7" width="62.0"/>
-    <col customWidth="1" min="8" max="8" width="19.71"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="58.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,12 +1975,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1564,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>1600000.0</v>
+        <v>1600000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -1576,12 +2001,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>23</v>
@@ -1590,7 +2015,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="3">
-        <v>950000.0</v>
+        <v>950000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
@@ -1599,12 +2024,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>31</v>
@@ -1613,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="3">
-        <v>649000.0</v>
+        <v>649000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
@@ -1622,12 +2047,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
@@ -1636,7 +2061,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="3">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1645,12 +2070,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
@@ -1659,7 +2084,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="3">
-        <v>1250000.0</v>
+        <v>1250000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
@@ -1668,12 +2093,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>55</v>
@@ -1682,7 +2107,7 @@
         <v>56</v>
       </c>
       <c r="E7" s="3">
-        <v>550000.0</v>
+        <v>550000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1691,12 +2116,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
@@ -1705,7 +2130,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="3">
-        <v>520000.0</v>
+        <v>520000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -1714,12 +2139,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>75</v>
@@ -1728,7 +2153,7 @@
         <v>76</v>
       </c>
       <c r="E9" s="3">
-        <v>810000.0</v>
+        <v>810000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -1737,12 +2162,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>84</v>
@@ -1751,7 +2176,7 @@
         <v>85</v>
       </c>
       <c r="E10" s="3">
-        <v>360000.0</v>
+        <v>360000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>26</v>
@@ -1760,12 +2185,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>90</v>
@@ -1774,7 +2199,7 @@
         <v>92</v>
       </c>
       <c r="E11" s="3">
-        <v>2150000.0</v>
+        <v>2150000</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>94</v>
@@ -1784,7 +2209,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1793,17 +2219,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="61.86"/>
-    <col customWidth="1" min="4" max="4" width="49.71"/>
-    <col customWidth="1" min="7" max="7" width="39.14"/>
+    <col min="3" max="3" width="61.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="49.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="39.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,12 +2256,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>114</v>
@@ -1843,7 +2270,7 @@
         <v>116</v>
       </c>
       <c r="E2" s="3">
-        <v>1500000.0</v>
+        <v>1500000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -1855,12 +2282,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>123</v>
@@ -1869,7 +2296,7 @@
         <v>125</v>
       </c>
       <c r="E3" s="3">
-        <v>2800000.0</v>
+        <v>2800000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -1878,12 +2305,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>133</v>
@@ -1892,7 +2319,7 @@
         <v>134</v>
       </c>
       <c r="E4" s="3">
-        <v>1100000.0</v>
+        <v>1100000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
@@ -1901,12 +2328,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>140</v>
@@ -1915,7 +2342,7 @@
         <v>142</v>
       </c>
       <c r="E5" s="3">
-        <v>1122000.0</v>
+        <v>1122000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1924,12 +2351,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>148</v>
@@ -1938,7 +2365,7 @@
         <v>149</v>
       </c>
       <c r="E6" s="3">
-        <v>515000.0</v>
+        <v>515000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
@@ -1947,12 +2374,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>156</v>
@@ -1961,7 +2388,7 @@
         <v>158</v>
       </c>
       <c r="E7" s="3">
-        <v>2149000.0</v>
+        <v>2149000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1970,12 +2397,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>160</v>
@@ -1984,7 +2411,7 @@
         <v>161</v>
       </c>
       <c r="E8" s="3">
-        <v>1750000.0</v>
+        <v>1750000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -1993,12 +2420,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>163</v>
@@ -2007,7 +2434,7 @@
         <v>164</v>
       </c>
       <c r="E9" s="3">
-        <v>3203000.0</v>
+        <v>3203000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -2016,12 +2443,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>166</v>
@@ -2030,7 +2457,7 @@
         <v>167</v>
       </c>
       <c r="E10" s="3">
-        <v>795000.0</v>
+        <v>795000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -2040,7 +2467,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -2049,17 +2477,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="34.14"/>
-    <col customWidth="1" min="4" max="4" width="48.14"/>
-    <col customWidth="1" min="7" max="7" width="48.29"/>
+    <col min="3" max="3" width="34.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="48.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="48.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,12 +2514,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>110</v>
@@ -2099,7 +2528,7 @@
         <v>111</v>
       </c>
       <c r="E2" s="3">
-        <v>1395000.0</v>
+        <v>1395000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
@@ -2111,12 +2540,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>115</v>
@@ -2125,7 +2554,7 @@
         <v>117</v>
       </c>
       <c r="E3" s="3">
-        <v>9300000.0</v>
+        <v>9300000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
@@ -2134,12 +2563,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>121</v>
@@ -2148,7 +2577,7 @@
         <v>122</v>
       </c>
       <c r="E4" s="3">
-        <v>2780000.0</v>
+        <v>2780000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>30</v>
@@ -2157,12 +2586,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>126</v>
@@ -2171,7 +2600,7 @@
         <v>127</v>
       </c>
       <c r="E5" s="3">
-        <v>8500000.0</v>
+        <v>8500000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>30</v>
@@ -2180,12 +2609,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>130</v>
@@ -2194,7 +2623,7 @@
         <v>131</v>
       </c>
       <c r="E6" s="3">
-        <v>4005000.0</v>
+        <v>4005000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
@@ -2203,12 +2632,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>135</v>
@@ -2217,7 +2646,7 @@
         <v>136</v>
       </c>
       <c r="E7" s="3">
-        <v>3770000.0</v>
+        <v>3770000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>30</v>
@@ -2226,12 +2655,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>139</v>
@@ -2240,7 +2669,7 @@
         <v>141</v>
       </c>
       <c r="E8" s="3">
-        <v>5160000.0</v>
+        <v>5160000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>30</v>
@@ -2249,12 +2678,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>145</v>
@@ -2263,7 +2692,7 @@
         <v>146</v>
       </c>
       <c r="E9" s="3">
-        <v>3141000.0</v>
+        <v>3141000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -2272,12 +2701,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>150</v>
@@ -2286,7 +2715,7 @@
         <v>151</v>
       </c>
       <c r="E10" s="3">
-        <v>1521000.0</v>
+        <v>1521000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -2295,12 +2724,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>154</v>
@@ -2309,7 +2738,7 @@
         <v>155</v>
       </c>
       <c r="E11" s="3">
-        <v>2370000.0</v>
+        <v>2370000</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -2319,7 +2748,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -2328,17 +2758,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="49.29"/>
-    <col customWidth="1" min="4" max="4" width="64.71"/>
-    <col customWidth="1" min="7" max="7" width="54.57"/>
+    <col min="3" max="3" width="49.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="64.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="54.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2364,12 +2795,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>169</v>
@@ -2378,7 +2809,7 @@
         <v>170</v>
       </c>
       <c r="E2" s="3">
-        <v>3800000.0</v>
+        <v>3800000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -2390,12 +2821,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>173</v>
@@ -2404,7 +2835,7 @@
         <v>174</v>
       </c>
       <c r="E3" s="3">
-        <v>900000.0</v>
+        <v>900000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -2413,12 +2844,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>176</v>
@@ -2427,7 +2858,7 @@
         <v>177</v>
       </c>
       <c r="E4" s="3">
-        <v>1282600.0</v>
+        <v>1282600</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>178</v>
@@ -2436,12 +2867,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>180</v>
@@ -2450,7 +2881,7 @@
         <v>181</v>
       </c>
       <c r="E5" s="3">
-        <v>2600180.0</v>
+        <v>2600180</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>178</v>
@@ -2459,12 +2890,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>183</v>
@@ -2473,7 +2904,7 @@
         <v>184</v>
       </c>
       <c r="E6" s="3">
-        <v>2465000.0</v>
+        <v>2465000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
@@ -2482,12 +2913,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>186</v>
@@ -2496,7 +2927,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="3">
-        <v>1704000.0</v>
+        <v>1704000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -2505,12 +2936,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>189</v>
@@ -2519,7 +2950,7 @@
         <v>190</v>
       </c>
       <c r="E8" s="3">
-        <v>1350000.0</v>
+        <v>1350000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>21</v>
@@ -2528,12 +2959,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>192</v>
@@ -2542,7 +2973,7 @@
         <v>193</v>
       </c>
       <c r="E9" s="3">
-        <v>1575000.0</v>
+        <v>1575000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -2551,12 +2982,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>195</v>
@@ -2565,7 +2996,7 @@
         <v>196</v>
       </c>
       <c r="E10" s="3">
-        <v>1200000.0</v>
+        <v>1200000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>21</v>
@@ -2575,6 +3006,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Da mặt" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Body" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Trang điểm" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Tóc mi mày" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Nước hoa" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Viên uống bổ sung" sheetId="6" r:id="rId8"/>
+    <sheet name="Da mặt" sheetId="1" r:id="rId1"/>
+    <sheet name="Body" sheetId="2" r:id="rId2"/>
+    <sheet name="Trang điểm" sheetId="3" r:id="rId3"/>
+    <sheet name="Tóc mi mày" sheetId="4" r:id="rId4"/>
+    <sheet name="Nước hoa" sheetId="5" r:id="rId5"/>
+    <sheet name="Viên uống bổ sung" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -622,149 +626,565 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,22 +1192,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.86"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="47.14"/>
-    <col customWidth="1" min="4" max="4" width="53.0"/>
-    <col customWidth="1" min="7" max="7" width="43.29"/>
-    <col customWidth="1" min="9" max="9" width="53.86"/>
-    <col customWidth="1" min="10" max="10" width="105.86"/>
-    <col customWidth="1" min="12" max="12" width="23.14"/>
+    <col min="1" max="1" width="5.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="47.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="7" max="7" width="43.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="53.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="105.857142857143" customWidth="1"/>
+    <col min="12" max="12" width="23.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,12 +1234,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -827,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="7">
-        <v>1350000.0</v>
+        <v>1350000</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -839,12 +1260,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>46</v>
@@ -853,7 +1274,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="7">
-        <v>1158000.0</v>
+        <v>1158000</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>51</v>
@@ -862,12 +1283,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>58</v>
@@ -876,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="7">
-        <v>1022000.0</v>
+        <v>1022000</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>63</v>
@@ -885,12 +1306,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>69</v>
@@ -899,7 +1320,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="7">
-        <v>3700000.0</v>
+        <v>3700000</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>63</v>
@@ -908,12 +1329,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>78</v>
@@ -922,7 +1343,7 @@
         <v>81</v>
       </c>
       <c r="E6" s="7">
-        <v>1242000.0</v>
+        <v>1242000</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>51</v>
@@ -931,12 +1352,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>86</v>
@@ -945,7 +1366,7 @@
         <v>87</v>
       </c>
       <c r="E7" s="7">
-        <v>4427000.0</v>
+        <v>4427000</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
@@ -954,12 +1375,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -968,7 +1389,7 @@
         <v>93</v>
       </c>
       <c r="E8" s="7">
-        <v>682000.0</v>
+        <v>682000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>95</v>
@@ -981,12 +1402,12 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>99</v>
@@ -995,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="7">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -1010,12 +1431,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>104</v>
@@ -1024,7 +1445,7 @@
         <v>105</v>
       </c>
       <c r="E10" s="3">
-        <v>3225000.0</v>
+        <v>3225000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -1035,12 +1456,12 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>107</v>
@@ -1049,7 +1470,7 @@
         <v>108</v>
       </c>
       <c r="E11" s="3">
-        <v>1910000.0</v>
+        <v>1910000</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
@@ -1060,7 +1481,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:8" ht="15.75">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1069,7 +1490,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="2:8" ht="15.75">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1078,7 +1499,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:8" ht="15.75">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1087,7 +1508,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:8" ht="15.75">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1096,35 +1517,35 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="4:8" ht="15.75">
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="4:8" ht="15.75">
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="4:8" ht="15.75">
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="4:8" ht="15.75">
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1133,7 +1554,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:8" ht="15.75">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1142,110 +1563,111 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="5:6" ht="15.75">
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23">
+    <row r="23" spans="5:6" ht="15.75">
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24">
+    <row r="24" spans="5:6" ht="15.75">
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25">
+    <row r="25" spans="5:6" ht="15.75">
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26">
+    <row r="26" spans="5:6" ht="15.75">
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27">
+    <row r="27" spans="5:6" ht="15.75">
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75">
       <c r="F28" s="18"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75">
       <c r="F29" s="18"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75">
       <c r="F30" s="18"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75">
       <c r="F31" s="18"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75">
       <c r="F32" s="18"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75">
       <c r="F33" s="18"/>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75">
       <c r="F34" s="18"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75">
       <c r="F35" s="18"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75">
       <c r="F36" s="18"/>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75">
       <c r="F37" s="18"/>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75">
       <c r="F38" s="18"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75">
       <c r="F39" s="18"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75">
       <c r="F40" s="18"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75">
       <c r="F41" s="18"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75">
       <c r="F42" s="18"/>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75">
       <c r="F43" s="18"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75">
       <c r="F44" s="18"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75">
       <c r="F45" s="18"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75">
       <c r="F46" s="18"/>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75">
       <c r="F47" s="18"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75">
       <c r="F48" s="18"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75">
       <c r="F49" s="18"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75">
       <c r="F50" s="18"/>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75">
       <c r="F51" s="18"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75">
       <c r="F52" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M9:M11"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1254,17 +1676,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="40.29"/>
-    <col customWidth="1" min="4" max="4" width="59.29"/>
-    <col customWidth="1" min="7" max="7" width="35.86"/>
+    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="59.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="35.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1293,12 +1716,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1307,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>2157000.0</v>
+        <v>2157000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -1319,12 +1742,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -1333,7 +1756,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="3">
-        <v>790000.0</v>
+        <v>790000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>21</v>
@@ -1342,12 +1765,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -1356,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="3">
-        <v>450000.0</v>
+        <v>450000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
@@ -1365,12 +1788,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>33</v>
@@ -1379,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="3">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1388,12 +1811,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -1402,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="3">
-        <v>849000.0</v>
+        <v>849000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
@@ -1411,12 +1834,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>47</v>
@@ -1425,7 +1848,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="3">
-        <v>950000.0</v>
+        <v>950000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1434,12 +1857,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>57</v>
@@ -1448,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="3">
-        <v>2015000.0</v>
+        <v>2015000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>62</v>
@@ -1457,12 +1880,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
@@ -1471,7 +1894,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="3">
-        <v>2112000.0</v>
+        <v>2112000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>63</v>
@@ -1480,12 +1903,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>77</v>
@@ -1494,7 +1917,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="3">
-        <v>1800000.0</v>
+        <v>1800000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -1503,8 +1926,10 @@
         <v>83</v>
       </c>
     </row>
+    <row r="11" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1513,18 +1938,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="45.0"/>
-    <col customWidth="1" min="4" max="4" width="58.71"/>
-    <col customWidth="1" min="7" max="7" width="62.0"/>
-    <col customWidth="1" min="8" max="8" width="19.71"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="58.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,12 +1976,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1564,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>1600000.0</v>
+        <v>1600000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -1576,12 +2002,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>23</v>
@@ -1590,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="3">
-        <v>950000.0</v>
+        <v>950000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
@@ -1599,12 +2025,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>31</v>
@@ -1613,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="3">
-        <v>649000.0</v>
+        <v>649000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
@@ -1622,12 +2048,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
@@ -1636,7 +2062,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="3">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1645,12 +2071,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
@@ -1659,7 +2085,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="3">
-        <v>1250000.0</v>
+        <v>1250000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
@@ -1668,12 +2094,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>55</v>
@@ -1682,7 +2108,7 @@
         <v>56</v>
       </c>
       <c r="E7" s="3">
-        <v>550000.0</v>
+        <v>550000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1691,12 +2117,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
@@ -1705,7 +2131,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="3">
-        <v>520000.0</v>
+        <v>520000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -1714,12 +2140,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>75</v>
@@ -1728,7 +2154,7 @@
         <v>76</v>
       </c>
       <c r="E9" s="3">
-        <v>810000.0</v>
+        <v>810000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -1737,12 +2163,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>84</v>
@@ -1751,7 +2177,7 @@
         <v>85</v>
       </c>
       <c r="E10" s="3">
-        <v>360000.0</v>
+        <v>360000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>26</v>
@@ -1760,12 +2186,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>90</v>
@@ -1774,7 +2200,7 @@
         <v>92</v>
       </c>
       <c r="E11" s="3">
-        <v>2150000.0</v>
+        <v>2150000</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>94</v>
@@ -1783,8 +2209,10 @@
         <v>97</v>
       </c>
     </row>
+    <row r="12" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1793,17 +2221,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="61.86"/>
-    <col customWidth="1" min="4" max="4" width="49.71"/>
-    <col customWidth="1" min="7" max="7" width="39.14"/>
+    <col min="3" max="3" width="61.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="49.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="39.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,12 +2258,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>114</v>
@@ -1843,7 +2272,7 @@
         <v>116</v>
       </c>
       <c r="E2" s="3">
-        <v>1500000.0</v>
+        <v>1500000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -1855,12 +2284,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>123</v>
@@ -1869,7 +2298,7 @@
         <v>125</v>
       </c>
       <c r="E3" s="3">
-        <v>2800000.0</v>
+        <v>2800000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -1878,12 +2307,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>133</v>
@@ -1892,7 +2321,7 @@
         <v>134</v>
       </c>
       <c r="E4" s="3">
-        <v>1100000.0</v>
+        <v>1100000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
@@ -1901,12 +2330,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>140</v>
@@ -1915,7 +2344,7 @@
         <v>142</v>
       </c>
       <c r="E5" s="3">
-        <v>1122000.0</v>
+        <v>1122000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1924,12 +2353,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>148</v>
@@ -1938,7 +2367,7 @@
         <v>149</v>
       </c>
       <c r="E6" s="3">
-        <v>515000.0</v>
+        <v>515000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
@@ -1947,12 +2376,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>156</v>
@@ -1961,7 +2390,7 @@
         <v>158</v>
       </c>
       <c r="E7" s="3">
-        <v>2149000.0</v>
+        <v>2149000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1970,12 +2399,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>160</v>
@@ -1984,7 +2413,7 @@
         <v>161</v>
       </c>
       <c r="E8" s="3">
-        <v>1750000.0</v>
+        <v>1750000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -1993,12 +2422,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>163</v>
@@ -2007,7 +2436,7 @@
         <v>164</v>
       </c>
       <c r="E9" s="3">
-        <v>3203000.0</v>
+        <v>3203000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -2016,12 +2445,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>166</v>
@@ -2030,7 +2459,7 @@
         <v>167</v>
       </c>
       <c r="E10" s="3">
-        <v>795000.0</v>
+        <v>795000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -2039,8 +2468,10 @@
         <v>168</v>
       </c>
     </row>
+    <row r="11" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -2049,17 +2480,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="34.14"/>
-    <col customWidth="1" min="4" max="4" width="48.14"/>
-    <col customWidth="1" min="7" max="7" width="48.29"/>
+    <col min="3" max="3" width="34.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="48.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="48.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,12 +2517,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>110</v>
@@ -2099,7 +2531,7 @@
         <v>111</v>
       </c>
       <c r="E2" s="3">
-        <v>1395000.0</v>
+        <v>1395000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
@@ -2111,12 +2543,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>115</v>
@@ -2125,7 +2557,7 @@
         <v>117</v>
       </c>
       <c r="E3" s="3">
-        <v>9300000.0</v>
+        <v>9300000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
@@ -2134,12 +2566,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>121</v>
@@ -2148,7 +2580,7 @@
         <v>122</v>
       </c>
       <c r="E4" s="3">
-        <v>2780000.0</v>
+        <v>2780000</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>30</v>
@@ -2157,12 +2589,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>126</v>
@@ -2171,7 +2603,7 @@
         <v>127</v>
       </c>
       <c r="E5" s="3">
-        <v>8500000.0</v>
+        <v>8500000</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>30</v>
@@ -2180,12 +2612,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>130</v>
@@ -2194,7 +2626,7 @@
         <v>131</v>
       </c>
       <c r="E6" s="3">
-        <v>4005000.0</v>
+        <v>4005000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
@@ -2203,12 +2635,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>135</v>
@@ -2217,7 +2649,7 @@
         <v>136</v>
       </c>
       <c r="E7" s="3">
-        <v>3770000.0</v>
+        <v>3770000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>30</v>
@@ -2226,12 +2658,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>139</v>
@@ -2240,7 +2672,7 @@
         <v>141</v>
       </c>
       <c r="E8" s="3">
-        <v>5160000.0</v>
+        <v>5160000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>30</v>
@@ -2249,12 +2681,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>145</v>
@@ -2263,7 +2695,7 @@
         <v>146</v>
       </c>
       <c r="E9" s="3">
-        <v>3141000.0</v>
+        <v>3141000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -2272,12 +2704,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>150</v>
@@ -2286,7 +2718,7 @@
         <v>151</v>
       </c>
       <c r="E10" s="3">
-        <v>1521000.0</v>
+        <v>1521000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -2295,12 +2727,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>154</v>
@@ -2309,7 +2741,7 @@
         <v>155</v>
       </c>
       <c r="E11" s="3">
-        <v>2370000.0</v>
+        <v>2370000</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -2318,8 +2750,10 @@
         <v>157</v>
       </c>
     </row>
+    <row r="12" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -2328,17 +2762,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="49.29"/>
-    <col customWidth="1" min="4" max="4" width="64.71"/>
-    <col customWidth="1" min="7" max="7" width="54.57"/>
+    <col min="3" max="3" width="49.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="64.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="54.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2364,12 +2799,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>169</v>
@@ -2378,7 +2813,7 @@
         <v>170</v>
       </c>
       <c r="E2" s="3">
-        <v>3800000.0</v>
+        <v>3800000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
@@ -2390,12 +2825,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>173</v>
@@ -2404,7 +2839,7 @@
         <v>174</v>
       </c>
       <c r="E3" s="3">
-        <v>900000.0</v>
+        <v>900000</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -2413,12 +2848,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>176</v>
@@ -2427,7 +2862,7 @@
         <v>177</v>
       </c>
       <c r="E4" s="3">
-        <v>1282600.0</v>
+        <v>1282600</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>178</v>
@@ -2436,12 +2871,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>180</v>
@@ -2450,7 +2885,7 @@
         <v>181</v>
       </c>
       <c r="E5" s="3">
-        <v>2600180.0</v>
+        <v>2600180</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>178</v>
@@ -2459,12 +2894,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>183</v>
@@ -2473,7 +2908,7 @@
         <v>184</v>
       </c>
       <c r="E6" s="3">
-        <v>2465000.0</v>
+        <v>2465000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
@@ -2482,12 +2917,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>186</v>
@@ -2496,7 +2931,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="3">
-        <v>1704000.0</v>
+        <v>1704000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -2505,12 +2940,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>189</v>
@@ -2519,7 +2954,7 @@
         <v>190</v>
       </c>
       <c r="E8" s="3">
-        <v>1350000.0</v>
+        <v>1350000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>21</v>
@@ -2528,12 +2963,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>192</v>
@@ -2542,7 +2977,7 @@
         <v>193</v>
       </c>
       <c r="E9" s="3">
-        <v>1575000.0</v>
+        <v>1575000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -2551,12 +2986,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>195</v>
@@ -2565,7 +3000,7 @@
         <v>196</v>
       </c>
       <c r="E10" s="3">
-        <v>1200000.0</v>
+        <v>1200000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>21</v>
@@ -2574,7 +3009,9 @@
         <v>197</v>
       </c>
     </row>
+    <row r="11" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -2221,7 +2221,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2284,7 +2284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2480,7 +2480,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2543,7 +2543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="3">
         <v>0</v>
       </c>

--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -2480,7 +2480,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2543,7 +2543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3">
         <v>0</v>
       </c>

--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="201">
   <si>
     <t>Status</t>
   </si>
@@ -618,6 +618,15 @@
   </si>
   <si>
     <t>Nước uống làm sáng da Astalift White Drink Whiteshield giúp làm sáng da, giúp ngăn ngừa oxi hóa và kiểm soát tác hại của tia UV đối với làn da, mang đến làn da trắng sáng khỏe mạnh.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Kem dưỡng body 2in1</t>
+  </si>
+  <si>
+    <t>default.jpg</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1685,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1926,7 +1935,46 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>2222222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>2222222</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>

--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Tóc mi mày" sheetId="4" r:id="rId4"/>
     <sheet name="Nước hoa" sheetId="5" r:id="rId5"/>
     <sheet name="Viên uống bổ sung" sheetId="6" r:id="rId6"/>
+    <sheet name="Sữa tắm" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
   <si>
     <t>Status</t>
   </si>
@@ -627,6 +628,12 @@
   </si>
   <si>
     <t>default.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sữa tắm bò </t>
+  </si>
+  <si>
+    <t>Rất tốt</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -3062,4 +3069,67 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>2222222</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="75" yWindow="2400" windowWidth="20415" windowHeight="7995" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Da mặt" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Tóc mi mày" sheetId="4" r:id="rId4"/>
     <sheet name="Nước hoa" sheetId="5" r:id="rId5"/>
     <sheet name="Viên uống bổ sung" sheetId="6" r:id="rId6"/>
-    <sheet name="Sữa tắm" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="195">
   <si>
     <t>Status</t>
   </si>
@@ -317,9 +316,6 @@
     <t>Kem sinh học đa chức năng nuôi dưỡng, bảo vệ da và tạo nền make-up hoàn hảo Aqua Vitale Bloom Flash sẽ mang lại cho bạn vẻ đẹp trong veo hợp đúng theo xu hướng trang điểm trong suốt “No makeup – makeup” như phép màu hô biến làn da bạn trở nên xinh đẹp và rạng rỡ chỉ trong 1 bước sử dụng.</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Bộ sản phẩm chăm sóc da mụn Is Clinical</t>
   </si>
   <si>
@@ -327,15 +323,6 @@
   </si>
   <si>
     <t>Bộ sản phẩm chăm sóc da mụn Is Clinical giúp hỗ trợ giảm viêm, kiểm soát nhờn, ngừa mụn cho bề mặt da sáng mịn, mềm mại, căng mượt.</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">là trạng thái của sản phầm
--1: đã bị xóa
-còn lại: oke
-</t>
   </si>
   <si>
     <t>Collagen tươi cho da lão hóa Traitement Au Collagene Pur 90‰</t>
@@ -619,27 +606,18 @@
   </si>
   <si>
     <t>Nước uống làm sáng da Astalift White Drink Whiteshield giúp làm sáng da, giúp ngăn ngừa oxi hóa và kiểm soát tác hại của tia UV đối với làn da, mang đến làn da trắng sáng khỏe mạnh.</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Kem dưỡng body 2in1</t>
-  </si>
-  <si>
-    <t>default.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sữa tắm bò </t>
-  </si>
-  <si>
-    <t>Rất tốt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -704,14 +682,6 @@
       <bottom/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -720,6 +690,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left/>
@@ -792,19 +770,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -814,6 +792,7 @@
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -882,6 +861,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1204,15 +1191,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="G1">
+      <selection pane="topLeft" activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.85714285714286" customWidth="1"/>
     <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
@@ -1224,7 +1213,7 @@
     <col min="12" max="12" width="23.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1276,7 +1265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -1299,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1322,7 +1311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -1345,7 +1334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -1368,7 +1357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -1391,7 +1380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="12.75">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -1413,12 +1402,10 @@
       <c r="G8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="L8" s="9"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:13" ht="12.75">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -1426,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E9" s="7">
         <v>5000000</v>
@@ -1438,16 +1425,12 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75">
+        <v>100</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75">
       <c r="A10" s="5">
         <v>0</v>
       </c>
@@ -1455,10 +1438,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3">
         <v>3225000</v>
@@ -1467,12 +1450,12 @@
         <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75">
+        <v>103</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -1480,10 +1463,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3">
         <v>1910000</v>
@@ -1492,12 +1475,12 @@
         <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75">
+        <v>106</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1506,7 +1489,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="15.75">
+    <row r="13" spans="2:8" ht="12.75">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1515,7 +1498,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75">
+    <row r="14" spans="2:8" ht="12.75">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1524,7 +1507,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" ht="15.75">
+    <row r="15" spans="2:8" ht="12.75">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1533,35 +1516,35 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="4:8" ht="15.75">
+    <row r="16" spans="4:8" ht="12.75">
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="4:8" ht="15.75">
+    <row r="17" spans="4:8" ht="12.75">
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="4:8" ht="15.75">
+    <row r="18" spans="4:8" ht="12.75">
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="4:8" ht="15.75">
+    <row r="19" spans="4:8" ht="12.75">
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="2:8" ht="12.75">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1570,7 +1553,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75">
+    <row r="21" spans="2:8" ht="12.75">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1579,104 +1562,104 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="5:6" ht="15.75">
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="5:6" ht="15.75">
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="5:6" ht="15.75">
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="5:6" ht="15.75">
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="5:6" ht="15.75">
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="5:6" ht="15.75">
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" ht="15.75">
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" ht="15.75">
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" ht="15.75">
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" ht="15.75">
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" ht="15.75">
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" ht="15.75">
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" ht="15.75">
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" ht="15.75">
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" ht="15.75">
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" ht="15.75">
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" ht="15.75">
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" ht="15.75">
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" ht="15.75">
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" ht="15.75">
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" ht="15.75">
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" ht="15.75">
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" ht="15.75">
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" ht="15.75">
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" ht="15.75">
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" ht="15.75">
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" ht="15.75">
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" ht="15.75">
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" ht="15.75">
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" ht="15.75">
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" ht="15.75">
-      <c r="F52" s="18"/>
+    <row r="22" spans="5:6" ht="12.75">
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="5:6" ht="12.75">
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="5:6" ht="12.75">
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="5:6" ht="12.75">
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="5:6" ht="12.75">
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="5:6" ht="12.75">
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" ht="12.75">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" ht="12.75">
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" ht="12.75">
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" ht="12.75">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" ht="12.75">
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" ht="12.75">
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" ht="12.75">
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" ht="12.75">
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" ht="12.75">
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" ht="12.75">
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" ht="12.75">
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" ht="12.75">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" ht="12.75">
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" ht="12.75">
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" ht="12.75">
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" ht="12.75">
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" ht="12.75">
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" ht="12.75">
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" ht="12.75">
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" ht="12.75">
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" ht="12.75">
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" ht="12.75">
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" ht="12.75">
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" ht="12.75">
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" ht="12.75">
+      <c r="F52" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1688,7 +1671,276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="D1">
+      <selection pane="topLeft" activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="59.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="35.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2157000</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>790000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3">
+        <v>450000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3">
+        <v>500000</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>849000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>950000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2112000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="G12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1696,308 +1948,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="59.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="35.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2157000</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>790000</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3">
-        <v>450000</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3">
-        <v>500000</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3">
-        <v>849000</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
-        <v>950000</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2015000</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2112000</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1800000</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11">
-        <v>2222222</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12">
-        <v>2222222</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="58.7142857142857" customWidth="1"/>
@@ -2005,7 +1956,7 @@
     <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +1982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2057,7 +2008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2080,7 +2031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2103,7 +2054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2126,7 +2077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2149,7 +2100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2172,7 +2123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2195,7 +2146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2218,7 +2169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:8" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2241,7 +2192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:8" ht="12.75">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2272,22 +2223,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="61.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="49.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="39.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2321,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3">
         <v>1500000</v>
@@ -2333,13 +2284,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2347,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3">
         <v>2800000</v>
@@ -2359,10 +2310,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2370,10 +2321,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3">
         <v>1100000</v>
@@ -2382,10 +2333,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2393,10 +2344,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3">
         <v>1122000</v>
@@ -2405,10 +2356,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2416,10 +2367,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3">
         <v>515000</v>
@@ -2428,10 +2379,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2439,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E7" s="3">
         <v>2149000</v>
@@ -2451,10 +2402,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2462,10 +2413,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E8" s="3">
         <v>1750000</v>
@@ -2474,10 +2425,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2485,10 +2436,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3">
         <v>3203000</v>
@@ -2497,10 +2448,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2508,10 +2459,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E10" s="3">
         <v>795000</v>
@@ -2520,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -2531,22 +2482,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="34.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="48.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="48.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2572,7 +2523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2580,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3">
         <v>1395000</v>
@@ -2592,13 +2543,13 @@
         <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2606,10 +2557,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3">
         <v>9300000</v>
@@ -2618,10 +2569,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2629,10 +2580,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3">
         <v>2780000</v>
@@ -2641,10 +2592,10 @@
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2652,10 +2603,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E5" s="3">
         <v>8500000</v>
@@ -2664,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2675,10 +2626,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3">
         <v>4005000</v>
@@ -2687,10 +2638,10 @@
         <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2698,10 +2649,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E7" s="3">
         <v>3770000</v>
@@ -2710,10 +2661,10 @@
         <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2721,10 +2672,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E8" s="3">
         <v>5160000</v>
@@ -2733,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2744,10 +2695,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3">
         <v>3141000</v>
@@ -2756,10 +2707,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2767,10 +2718,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E10" s="3">
         <v>1521000</v>
@@ -2779,10 +2730,10 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2790,10 +2741,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11" s="3">
         <v>2370000</v>
@@ -2802,7 +2753,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -2813,22 +2764,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="49.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="64.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="54.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2862,10 +2813,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3">
         <v>3800000</v>
@@ -2874,13 +2825,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2888,10 +2839,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3">
         <v>900000</v>
@@ -2900,10 +2851,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2911,22 +2862,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3">
         <v>1282600</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2934,22 +2885,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E5" s="3">
         <v>2600180</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2957,10 +2908,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" s="3">
         <v>2465000</v>
@@ -2969,10 +2920,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2980,10 +2931,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7" s="3">
         <v>1704000</v>
@@ -2992,10 +2943,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -3003,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E8" s="3">
         <v>1350000</v>
@@ -3015,10 +2966,10 @@
         <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -3026,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E9" s="3">
         <v>1575000</v>
@@ -3038,10 +2989,10 @@
         <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -3049,10 +3000,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E10" s="3">
         <v>1200000</v>
@@ -3061,7 +3012,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -3069,67 +3020,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="12.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>2222222</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -2768,7 +2768,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2831,7 +2831,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>

--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -2486,7 +2486,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2549,7 +2549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="3">
         <v>0</v>
       </c>

--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -1265,7 +1265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75">
+    <row r="12" spans="2:8" ht="12.75">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1743,7 +1743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="G11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1944,7 +1944,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2008,7 +2008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2227,7 +2227,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2290,7 +2290,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="3">
         <v>0</v>
       </c>

--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Tóc mi mày" sheetId="4" r:id="rId4"/>
     <sheet name="Nước hoa" sheetId="5" r:id="rId5"/>
     <sheet name="Viên uống bổ sung" sheetId="6" r:id="rId6"/>
+    <sheet name="Sữa tắm" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="195">
   <si>
     <t>Status</t>
   </si>
@@ -3020,4 +3021,44 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
--- a/Home/data/master_data.xlsx
+++ b/Home/data/master_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
   <si>
     <t>Status</t>
   </si>
@@ -607,6 +607,21 @@
   </si>
   <si>
     <t>Nước uống làm sáng da Astalift White Drink Whiteshield giúp làm sáng da, giúp ngăn ngừa oxi hóa và kiểm soát tác hại của tia UV đối với làn da, mang đến làn da trắng sáng khỏe mạnh.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Sữa tắm từ bò</t>
+  </si>
+  <si>
+    <t>default.jpg</t>
+  </si>
+  <si>
+    <t>Trung Quốc</t>
+  </si>
+  <si>
+    <t>đồ trung quốc đừng có dùng</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3040,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -3057,6 +3072,29 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="12.75">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2">
+        <v>2000000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
